--- a/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
+++ b/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="675" windowWidth="27315" windowHeight="12030"/>
+    <workbookView xWindow="960" yWindow="675" windowWidth="24240" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="126">
   <si>
     <t>RITA DE CASSIA DE SANTA BARBARA</t>
   </si>
@@ -232,6 +232,168 @@
   </si>
   <si>
     <t>CASOS EM ABERTO</t>
+  </si>
+  <si>
+    <t>EDIELTON TOMAZ DIAS</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>Coletado</t>
+  </si>
+  <si>
+    <t>TESTE RÁPIDO - ANTÍG</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE</t>
+  </si>
+  <si>
+    <t>Em tratamento domiciliar</t>
+  </si>
+  <si>
+    <t>EDNA DE FATIMA ALVES</t>
+  </si>
+  <si>
+    <t>MIALGIA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>210562Z106</t>
+  </si>
+  <si>
+    <t>OUTRAS MARCA</t>
+  </si>
+  <si>
+    <t>EDNA PINHEIRO SANTANA</t>
+  </si>
+  <si>
+    <t>MIALGIA, E</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Outros</t>
+  </si>
+  <si>
+    <t>210562Z205</t>
+  </si>
+  <si>
+    <t>EDSON FERNANDES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Dor de Cabeca, Outros</t>
+  </si>
+  <si>
+    <t>ELIANA RUFINO FERNANDES</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>ELIANE ARCHANJO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Assintomatico</t>
+  </si>
+  <si>
+    <t>ELIANE XAVIER DA SILVA</t>
+  </si>
+  <si>
+    <t>DOR ABDOMI</t>
+  </si>
+  <si>
+    <t>BE0042108067</t>
+  </si>
+  <si>
+    <t>ELISABETE MELO DA SILVA</t>
+  </si>
+  <si>
+    <t>TR INLUENZ</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>ELISABETH CARNEVALE BEZERRA</t>
+  </si>
+  <si>
+    <t>Mialgia</t>
+  </si>
+  <si>
+    <t>210562z204</t>
+  </si>
+  <si>
+    <t>MEDLEVENSOHN</t>
+  </si>
+  <si>
+    <t>ELISANGELA BALERO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse</t>
+  </si>
+  <si>
+    <t>210562Z204</t>
+  </si>
+  <si>
+    <t>ELISANGELA JANAINA DA SILVA</t>
+  </si>
+  <si>
+    <t>TR INFLUEN</t>
+  </si>
+  <si>
+    <t>ENOQUE FELIX DE SA FERREIRA LIMA</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>ERIVANIA LUCIO DE ATAIDES</t>
+  </si>
+  <si>
+    <t>EVINE DIAS DE CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coriza, Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Febre, Dor </t>
+  </si>
+  <si>
+    <t>FELIPE ALBUQUERQUE BARRETO</t>
+  </si>
+  <si>
+    <t>mialgia</t>
+  </si>
+  <si>
+    <t>Febre, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>210562z106</t>
+  </si>
+  <si>
+    <t>FELIPE MACHADO SIQUEIRA</t>
+  </si>
+  <si>
+    <t>TOSSE</t>
+  </si>
+  <si>
+    <t>Tosse, Outros</t>
+  </si>
+  <si>
+    <t>FRANCISCO GETULIO DE LIMA ALVES</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Outros</t>
+  </si>
+  <si>
+    <t>FRANCISCO OSMAR DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dor de Garganta, Coriza</t>
+  </si>
+  <si>
+    <t>GABRIEL PASSERI DE ARAUJO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Dor de Garganta, Outros</t>
   </si>
 </sst>
 </file>
@@ -580,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +1047,1642 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3522110251563</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>2202966745</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44572</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44571</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AH3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AY3" s="3"/>
+      <c r="BD3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>44614</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3522108889177</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>2102923054</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AH4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="BG4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3522110751140</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25426</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2">
+        <v>44574</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AH5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="3"/>
+      <c r="BG5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3522108768327</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AH6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>42108067</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6">
+        <v>42108067</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="3"/>
+      <c r="BH6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3522109963294</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28087</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AH7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="BG7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3522109628871</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2">
+        <v>22875</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8">
+        <v>2102892005</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44571</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AH8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK8">
+        <v>2704210806</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8">
+        <v>2704210806</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="BG8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3522111392135</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32889</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>2202998121</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AH9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY9" s="3"/>
+      <c r="BG9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3522109411216</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2">
+        <v>28754</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2">
+        <v>44567</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AH10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY10" s="3"/>
+      <c r="BG10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3522110983766</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="2">
+        <v>27957</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>2202970100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AH11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY11" s="3"/>
+      <c r="BG11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3522110956914</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28284</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>2102960499</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44572</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44571</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AH12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AY12" s="3"/>
+      <c r="BG12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3522109437649</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31877</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2">
+        <v>44568</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AH13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="3"/>
+      <c r="BG13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3522110849131</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28238</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14">
+        <v>2202998202</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AH14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY14" s="3"/>
+      <c r="BG14" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3522109412577</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28399</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2">
+        <v>44567</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AH15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="3"/>
+      <c r="BG15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3522110845466</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="2">
+        <v>33734</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16">
+        <v>2202981574</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AH16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY16" s="3"/>
+      <c r="BG16" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3522108937889</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27827</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17">
+        <v>2102912171</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AH17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>44202</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>44202</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="BG17" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3522110385788</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="2">
+        <v>34791</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="J18" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AH18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY18" s="3"/>
+      <c r="BG18" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3522109418519</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="2">
+        <v>31765</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2">
+        <v>44567</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AH19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY19" s="3"/>
+      <c r="BG19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3522129100267</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="2">
+        <v>16118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>2203011742</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44580</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AH20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="BG20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3522109410340</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="2">
+        <v>35789</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="J21" s="2">
+        <v>44568</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AH21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="3"/>
+      <c r="BG21" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
+++ b/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamentos_2022\janeiro_2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3571CC0B-229B-4EA1-9B35-E58BC8A82134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="675" windowWidth="24240" windowHeight="12030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="179">
   <si>
     <t>RITA DE CASSIA DE SANTA BARBARA</t>
   </si>
@@ -394,12 +400,171 @@
   </si>
   <si>
     <t>Dor de Cabeca, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>GEOVANNA DE OLIVEIRA ALVES SILVA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>GILDEMAR OLIVEIRA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>GINALDO NASCIMENTO DOS REIS</t>
+  </si>
+  <si>
+    <t>GISELE BESSA BRASIL FERREIRA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>GORETE MARIA SANTOS DA ROCHA</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Tosse, Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>GRAZIELE SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>GUILHERME FERREIRA MAXIMO DA FONSECA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre</t>
+  </si>
+  <si>
+    <t>HUGO DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>ISABELLE BEATRIZ GARCIA DORTA</t>
+  </si>
+  <si>
+    <t>MIALGIA, F</t>
+  </si>
+  <si>
+    <t>Coriza, Outros</t>
+  </si>
+  <si>
+    <t>ISABELLE NASCIMENTO GAIA</t>
+  </si>
+  <si>
+    <t>MIALGIA/AR</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>IVAN LEMOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIARREIA, </t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Outros</t>
+  </si>
+  <si>
+    <t>JADDY NASCIMENTO SANTIAGO SOUSA</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dispneia, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>JARDELINA MARIA VIDAL DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dispneia</t>
+  </si>
+  <si>
+    <t>JEFFERSON DA SILVA BISPO</t>
+  </si>
+  <si>
+    <t>ALGIA CORP</t>
+  </si>
+  <si>
+    <t>BE0042108065</t>
+  </si>
+  <si>
+    <t>JEFFERSON RICARDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraqueza, </t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>JESSICA MONTEIRO LIMA</t>
+  </si>
+  <si>
+    <t>FRAQUEZA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>210262Z204</t>
+  </si>
+  <si>
+    <t>JESSICA RAMOS SOBRAL</t>
+  </si>
+  <si>
+    <t>FALTA DE A</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Dor de Cabeca, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>JILIONEIRO ARAUJO DA MATA</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>JOADSON SILVA DE BARROS</t>
+  </si>
+  <si>
+    <t>JOAO CARLOS DIAS SANTOS</t>
+  </si>
+  <si>
+    <t>TESTE PARA</t>
+  </si>
+  <si>
+    <t>Disturbios Olfativos, Disturbios Gustativos, Febre, Outros</t>
+  </si>
+  <si>
+    <t>210562Z124</t>
+  </si>
+  <si>
+    <t>JOAO VICTOR DE SOUZSA AQUINO</t>
+  </si>
+  <si>
+    <t>SINDROME G</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>JOAO VICTOR SANTOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>JORGE MIGUEL ALCANTARA DE LUCENA</t>
+  </si>
+  <si>
+    <t>DOR NAS CO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,6 +616,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -458,7 +626,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -496,9 +664,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,9 +699,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,9 +751,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,11 +943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,13 +2885,1972 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3522110678108</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="2">
+        <v>37701</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="J22" s="2">
+        <v>44574</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AH22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY22" s="3"/>
+      <c r="BG22" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3522109947254</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="2">
+        <v>29352</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="J23" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AH23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY23" s="3"/>
+      <c r="BG23" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3522110875356</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30347</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24">
+        <v>2202982600</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AH24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AY24" s="3"/>
+      <c r="BG24" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3522109024945</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2">
+        <v>34420</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25">
+        <v>2102912208</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44567</v>
+      </c>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AH25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AY25" s="3"/>
+      <c r="BG25" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3522110863409</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25483</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26">
+        <v>2202981509</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AH26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY26" s="3"/>
+      <c r="BG26" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3522110835430</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2">
+        <v>35250</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2202981575</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AH27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY27" s="3"/>
+      <c r="BG27" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3522109681458</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2">
+        <v>40275</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28">
+        <v>2102912192</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44572</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44571</v>
+      </c>
+      <c r="L28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AH28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AY28" s="3"/>
+      <c r="BG28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3522109222984</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2">
+        <v>35781</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29">
+        <v>2102912164</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44569</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AH29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="BG29" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3522110397672</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="2">
+        <v>35953</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="J30" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AH30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY30" s="3"/>
+      <c r="BG30" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3522111000280</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2">
+        <v>37526</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31">
+        <v>2202970068</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AH31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="BG31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3522110998826</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="2">
+        <v>32436</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32">
+        <v>2102960554</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AH32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="BG32" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>3522108750977</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="2">
+        <v>34824</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33">
+        <v>2102923056</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44567</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44566</v>
+      </c>
+      <c r="L33" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AH33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY33" s="3"/>
+      <c r="BG33" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3522110035340</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="2">
+        <v>17672</v>
+      </c>
+      <c r="F34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="J34" s="2">
+        <v>44571</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AH34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY34" s="3"/>
+      <c r="BG34" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3522110358993</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="2">
+        <v>34917</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35">
+        <v>2102697444</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AH35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="BG35" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>3522110986626</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="2">
+        <v>33897</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36">
+        <v>2202970102</v>
+      </c>
+      <c r="H36" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AH36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AY36" s="3"/>
+      <c r="BG36" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>3522111313006</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="2">
+        <v>36900</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37">
+        <v>2202970113</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L37" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AH37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY37" s="3"/>
+      <c r="BG37" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3522110425998</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="2">
+        <v>33487</v>
+      </c>
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AH38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY38" s="3"/>
+      <c r="BG38" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3522108597663</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="2">
+        <v>31630</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39">
+        <v>2102912204</v>
+      </c>
+      <c r="H39" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AH39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="BG39" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>3522110400852</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="2">
+        <v>35188</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="J40" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AH40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY40" s="3"/>
+      <c r="BG40" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3522109268359</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44568</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="2">
+        <v>33836</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="J41" s="2">
+        <v>44568</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AH41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY41" s="3"/>
+      <c r="BG41" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3522109714634</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="2">
+        <v>40367</v>
+      </c>
+      <c r="E42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44571</v>
+      </c>
+      <c r="K42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AH42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT42" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY42" s="3"/>
+      <c r="BH42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3522108657347</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="2">
+        <v>36190</v>
+      </c>
+      <c r="F43" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43">
+        <v>2102248588</v>
+      </c>
+      <c r="H43" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AH43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="BD43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF43" s="2">
+        <v>44616</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>3522111029577</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44575</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="2">
+        <v>36839</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44">
+        <v>2202980864</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44576</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>44575</v>
+      </c>
+      <c r="L44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AH44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>44575</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>44575</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT44" s="2">
+        <v>44575</v>
+      </c>
+      <c r="AY44" s="3"/>
+      <c r="BG44" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2701,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
+++ b/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
@@ -745,7 +745,7 @@
   <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
+++ b/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamentos_2022\janeiro_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3571CC0B-229B-4EA1-9B35-E58BC8A82134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C410DF-9804-4524-8C17-AAE7FB4135CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="225">
   <si>
     <t>RITA DE CASSIA DE SANTA BARBARA</t>
   </si>
@@ -559,6 +559,144 @@
   </si>
   <si>
     <t>DOR NAS CO</t>
+  </si>
+  <si>
+    <t>ADRIELE DE MELO GOMES</t>
+  </si>
+  <si>
+    <t>VOMITOS,DO</t>
+  </si>
+  <si>
+    <t>ALAIDES GOMES DEOLINDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIALGIA </t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>ALAN PEREIRA CUNHA</t>
+  </si>
+  <si>
+    <t>NAUSEA</t>
+  </si>
+  <si>
+    <t>ALESSANDRO SOUSA PINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAGNÓSTICA </t>
+  </si>
+  <si>
+    <t>ALEXANDRA SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MIALGIA, D</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Outros</t>
+  </si>
+  <si>
+    <t>ALINE PEREIRA DE SOUSA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>ALLAN CORREIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>fraqueza</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>AMANDA APARECIDA BARBOSA DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIALGIA E </t>
+  </si>
+  <si>
+    <t>AMERICO RAMOS</t>
+  </si>
+  <si>
+    <t>Disturbios Olfativos, Disturbios Gustativos</t>
+  </si>
+  <si>
+    <t>ANA PAULA DE SOUZA MENDES</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Garganta, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>ANA PAULA DOS SANTOS SILVA PIRES</t>
+  </si>
+  <si>
+    <t>ANDERSON CAETANO PEREIRA</t>
+  </si>
+  <si>
+    <t>Coriza, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>ANDERSON CESAR CHIANDOTTI</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dor de Garganta, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>ANDERSON RODRIGO CORREA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ANDRE LUIS MACHADO GOMES</t>
+  </si>
+  <si>
+    <t>ANIBAL MANUEL GUEDES TEIXEIRA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>ANTONIA DOS SANTOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Febre</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS DE SOUZA PINHEIRO</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Garganta, Febre</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS SILVA DE FARIAS</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Tosse</t>
+  </si>
+  <si>
+    <t>APARECIDA DE CACERES SAEZ MORAES GUIMARAES</t>
+  </si>
+  <si>
+    <t>CALAFRIOS</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>APOLINARIO RICARDO DE ANANIAS NETO</t>
+  </si>
+  <si>
+    <t>Falta de a</t>
+  </si>
+  <si>
+    <t>ARILMA PINTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>AZENILDES SANTOS VALERIANO PEREIRA</t>
+  </si>
+  <si>
+    <t>BARBARA DE PAULO</t>
   </si>
 </sst>
 </file>
@@ -944,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI44"/>
+  <dimension ref="A1:BI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,6 +4982,2066 @@
         <v>10</v>
       </c>
     </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3522110166030</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="2">
+        <v>36783</v>
+      </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="J45" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AH45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT45" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY45" s="3"/>
+      <c r="BG45" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3522109426051</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="2">
+        <v>17769</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46">
+        <v>2102953560</v>
+      </c>
+      <c r="H46" s="2">
+        <v>44569</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>44568</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AH46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT46" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AY46" s="3"/>
+      <c r="BG46" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3522110684153</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="2">
+        <v>33096</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47">
+        <v>2202998199</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AH47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT47" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY47" s="3"/>
+      <c r="BG47" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>3522109389686</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="2">
+        <v>34063</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48">
+        <v>2102912199</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44569</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>44569</v>
+      </c>
+      <c r="L48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AH48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT48" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AY48" s="3"/>
+      <c r="BG48" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>3522109434814</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="2">
+        <v>31349</v>
+      </c>
+      <c r="E49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49">
+        <v>2102912196</v>
+      </c>
+      <c r="H49" s="2">
+        <v>44571</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AH49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="BG49" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>3522109232084</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44568</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="2">
+        <v>36479</v>
+      </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="J50" s="2">
+        <v>44568</v>
+      </c>
+      <c r="K50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AH50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT50" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY50" s="3"/>
+      <c r="BG50" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>3522108922045</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="2">
+        <v>29546</v>
+      </c>
+      <c r="E51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51">
+        <v>2102912211</v>
+      </c>
+      <c r="H51" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AH51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="BG51" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>3522109704789</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="2">
+        <v>33418</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52">
+        <v>2202982548</v>
+      </c>
+      <c r="H52" s="2">
+        <v>44573</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>44572</v>
+      </c>
+      <c r="L52" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AH52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT52" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AY52" s="3"/>
+      <c r="BG52" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>3522110469997</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="2">
+        <v>23933</v>
+      </c>
+      <c r="F53" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="J53" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AH53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT53" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY53" s="3"/>
+      <c r="BG53" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>3522109173575</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44568</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="2">
+        <v>29622</v>
+      </c>
+      <c r="F54" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54">
+        <v>2102912169</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44569</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AH54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>44568</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="BG54" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>3522109434145</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="2">
+        <v>30706</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="J55" s="2">
+        <v>44569</v>
+      </c>
+      <c r="K55" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AH55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT55" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY55" s="3"/>
+      <c r="BG55" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3522109415135</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="2">
+        <v>29391</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="J56" s="2">
+        <v>44567</v>
+      </c>
+      <c r="K56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AH56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT56" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY56" s="3"/>
+      <c r="BG56" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3522110685826</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="2">
+        <v>28621</v>
+      </c>
+      <c r="F57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57">
+        <v>2202998161</v>
+      </c>
+      <c r="H57" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L57" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AH57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY57" s="3"/>
+      <c r="BG57" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>3522110984118</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="2">
+        <v>32612</v>
+      </c>
+      <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58">
+        <v>2202970086</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AH58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS58" s="3"/>
+      <c r="AY58" s="3"/>
+      <c r="BG58" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3522110876756</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="2">
+        <v>31370</v>
+      </c>
+      <c r="F59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59">
+        <v>2202982583</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L59" t="s">
+        <v>74</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AH59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT59" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AY59" s="3"/>
+      <c r="BG59" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>3522111274972</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="2">
+        <v>15950</v>
+      </c>
+      <c r="F60" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60">
+        <v>2202998152</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AH60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI60" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT60" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY60" s="3"/>
+      <c r="BG60" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>3522110416238</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="2">
+        <v>26463</v>
+      </c>
+      <c r="F61" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61">
+        <v>2202982574</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AH61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT61" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY61" s="3"/>
+      <c r="BG61" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3522110467196</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="2">
+        <v>32281</v>
+      </c>
+      <c r="F62" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62">
+        <v>2202982577</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L62" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AH62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT62" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY62" s="3"/>
+      <c r="BG62" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>3522111343917</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="2">
+        <v>19024</v>
+      </c>
+      <c r="F63" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63">
+        <v>2202998129</v>
+      </c>
+      <c r="H63" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AH63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT63" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY63" s="3"/>
+      <c r="BG63" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>3522111020902</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C64" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="2">
+        <v>24040</v>
+      </c>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" t="s">
+        <v>219</v>
+      </c>
+      <c r="G64">
+        <v>2102894291</v>
+      </c>
+      <c r="H64" s="2">
+        <v>44572</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AH64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS64" s="3"/>
+      <c r="AY64" s="3"/>
+      <c r="BG64" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>3522110987421</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="2">
+        <v>31447</v>
+      </c>
+      <c r="E65" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65">
+        <v>2202970092</v>
+      </c>
+      <c r="H65" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AH65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS65" s="3"/>
+      <c r="AY65" s="3"/>
+      <c r="BG65" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>3522109609158</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C66" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="2">
+        <v>30763</v>
+      </c>
+      <c r="E66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66">
+        <v>2102697456</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44572</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>44571</v>
+      </c>
+      <c r="L66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AH66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT66" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AY66" s="3"/>
+      <c r="BG66" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>3522110685053</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C67" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="2">
+        <v>23298</v>
+      </c>
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67">
+        <v>2102946254</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AH67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT67" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AY67" s="3"/>
+      <c r="BG67" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH67" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>3522111319955</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C68" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="2">
+        <v>31626</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68">
+        <v>2202970117</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L68" t="s">
+        <v>74</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AH68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT68" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY68" s="3"/>
+      <c r="BG68" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI68" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
+++ b/fechamentos_2022/janeiro_2022/PositivoTesteJaneiro22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamentos_2022\janeiro_2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C410DF-9804-4524-8C17-AAE7FB4135CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="278">
   <si>
     <t>RITA DE CASSIA DE SANTA BARBARA</t>
   </si>
@@ -697,12 +691,171 @@
   </si>
   <si>
     <t>BARBARA DE PAULO</t>
+  </si>
+  <si>
+    <t>BRUNO ALEXANDRE</t>
+  </si>
+  <si>
+    <t>Coriza, Febre, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>BRUNO GARCIA GOMES</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>CAIO DE OLIVEIRA BARBOSA</t>
+  </si>
+  <si>
+    <t>BE004210865</t>
+  </si>
+  <si>
+    <t>CAMILA GUERRA LOUREIRO</t>
+  </si>
+  <si>
+    <t>CAMILA PEDROZO DA SILVA</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Dor de Cabeca, Tosse, Febre, Dor de Garganta, Disturbios Olfati</t>
+  </si>
+  <si>
+    <t>CARINE DE CARVALHO SANTANA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO NABEIRO</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>Eco Diagnost</t>
+  </si>
+  <si>
+    <t>CAROLINE GONCALVES DE CARVALHO</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse</t>
+  </si>
+  <si>
+    <t>CASSIA ALVES TEIXEIRA MELO</t>
+  </si>
+  <si>
+    <t>CESAR AUGUSTO DA SILVA</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>CLAUDEMIR CRISPIM DE LIMA</t>
+  </si>
+  <si>
+    <t>DIARREIA</t>
+  </si>
+  <si>
+    <t>CLAUDIA ROBERTA HONORIO DE SA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Coriza</t>
+  </si>
+  <si>
+    <t>CLAUDIO DE JESUS CARVALHO</t>
+  </si>
+  <si>
+    <t>dor nas co</t>
+  </si>
+  <si>
+    <t>CLAUDIO RODRIGO LINS BISPO</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Febre</t>
+  </si>
+  <si>
+    <t>CLAUDIONOR PAULINO DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>CLEISON SANTOS MACEDO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>CRISTIANE MIKIE NAKAZA KAMIA</t>
+  </si>
+  <si>
+    <t>náuseas, m</t>
+  </si>
+  <si>
+    <t>CRISTINA APARECIDA DA SILVA</t>
+  </si>
+  <si>
+    <t>be0042108067</t>
+  </si>
+  <si>
+    <t>Cura</t>
+  </si>
+  <si>
+    <t>Descartado</t>
+  </si>
+  <si>
+    <t>DANIEL FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>CALAFRIOS,</t>
+  </si>
+  <si>
+    <t>DANIELA CARLA RIBEIRO DE LIMA</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>DANIELA CRISTIN ARAMOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>DANIELLE ANDRE ELIAS</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>DEVANI RIBEIRO FRANCO</t>
+  </si>
+  <si>
+    <t>GRIPE, DOR</t>
+  </si>
+  <si>
+    <t>DIEGO CAMILLO</t>
+  </si>
+  <si>
+    <t>DIEGO KENDY KAMIA</t>
+  </si>
+  <si>
+    <t>vômito, fr</t>
+  </si>
+  <si>
+    <t>DIOGO HENRIQUE LINS</t>
+  </si>
+  <si>
+    <t>DJEISE CRISTINA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>Febre, Coriza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,7 +917,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -802,9 +955,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,26 +990,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,26 +1025,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1081,11 +1200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7042,13 +7161,2354 @@
         <v>10</v>
       </c>
     </row>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3522110692919</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="2">
+        <v>31615</v>
+      </c>
+      <c r="F69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69">
+        <v>2202998157</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AH69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT69" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY69" s="3"/>
+      <c r="BG69" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH69" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>3522109381006</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="2">
+        <v>34967</v>
+      </c>
+      <c r="E70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70">
+        <v>2102917841</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44567</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="2">
+        <v>44566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AH70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI70" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN70" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT70" s="2">
+        <v>44566</v>
+      </c>
+      <c r="AY70" s="3"/>
+      <c r="BG70" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3522110846789</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="2">
+        <v>32146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71">
+        <v>2102779684</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AH71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI71" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS71" s="3"/>
+      <c r="AY71" s="3"/>
+      <c r="BG71" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3522110372150</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="2">
+        <v>32578</v>
+      </c>
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72">
+        <v>2102697443</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>74</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AH72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI72" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN72" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT72" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY72" s="3"/>
+      <c r="BG72" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3522110003461</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="2">
+        <v>33881</v>
+      </c>
+      <c r="F73" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73">
+        <v>2202982547</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44573</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="2">
+        <v>44572</v>
+      </c>
+      <c r="L73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AH73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT73" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AY73" s="3"/>
+      <c r="BG73" t="s">
+        <v>232</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>3522110066977</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="2">
+        <v>31115</v>
+      </c>
+      <c r="F74" t="s">
+        <v>235</v>
+      </c>
+      <c r="J74" s="2">
+        <v>44571</v>
+      </c>
+      <c r="K74" t="s">
+        <v>3</v>
+      </c>
+      <c r="L74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AH74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI74" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT74" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY74" s="3"/>
+      <c r="BH74" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3522110159924</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="2">
+        <v>30358</v>
+      </c>
+      <c r="F75" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="J75" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K75" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AH75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI75" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN75" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT75" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY75" s="3"/>
+      <c r="BE75" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>236</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>3522111316029</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" s="2">
+        <v>34450</v>
+      </c>
+      <c r="F76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76">
+        <v>2202998114</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AH76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN76" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT76" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY76" s="3"/>
+      <c r="BG76" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>3522110269371</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C77" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" s="2">
+        <v>28990</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K77" t="s">
+        <v>3</v>
+      </c>
+      <c r="L77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AH77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI77" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT77" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY77" s="3"/>
+      <c r="BH77" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>3522111031121</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C78" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="2">
+        <v>36626</v>
+      </c>
+      <c r="E78" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" t="s">
+        <v>243</v>
+      </c>
+      <c r="G78">
+        <v>2202970127</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L78" t="s">
+        <v>74</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AH78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI78" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT78" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY78" s="3"/>
+      <c r="BG78" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH78" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>3522110480023</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" s="2">
+        <v>28405</v>
+      </c>
+      <c r="E79" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>157</v>
+      </c>
+      <c r="J79" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K79" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" t="s">
+        <v>4</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AH79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI79" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN79" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT79" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY79" s="3"/>
+      <c r="BH79" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>3522108954704</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="2">
+        <v>28212</v>
+      </c>
+      <c r="F80" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80">
+        <v>2102444346</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44567</v>
+      </c>
+      <c r="L80" t="s">
+        <v>74</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AH80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT80" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AY80" s="3"/>
+      <c r="BG80" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH80" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>3522111023714</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44575</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="2">
+        <v>19636</v>
+      </c>
+      <c r="E81" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81">
+        <v>2202980771</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44576</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="2">
+        <v>44575</v>
+      </c>
+      <c r="L81" t="s">
+        <v>74</v>
+      </c>
+      <c r="M81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AH81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>44575</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>44575</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT81" s="2">
+        <v>44575</v>
+      </c>
+      <c r="AY81" s="3"/>
+      <c r="BG81" t="s">
+        <v>248</v>
+      </c>
+      <c r="BH81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>3522110318696</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="2">
+        <v>37135</v>
+      </c>
+      <c r="F82" t="s">
+        <v>251</v>
+      </c>
+      <c r="G82">
+        <v>2102697446</v>
+      </c>
+      <c r="H82" s="2">
+        <v>44574</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="2">
+        <v>44573</v>
+      </c>
+      <c r="L82" t="s">
+        <v>74</v>
+      </c>
+      <c r="M82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AH82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT82" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AY82" s="3"/>
+      <c r="BG82" t="s">
+        <v>250</v>
+      </c>
+      <c r="BH82" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>3522109436291</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="2">
+        <v>19705</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="J83" s="2">
+        <v>44569</v>
+      </c>
+      <c r="K83" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AH83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI83" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT83" s="2">
+        <v>44569</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY83" s="3"/>
+      <c r="BG83" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH83" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>3522109658667</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C84" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="2">
+        <v>29021</v>
+      </c>
+      <c r="F84" t="s">
+        <v>255</v>
+      </c>
+      <c r="G84">
+        <v>2102912193</v>
+      </c>
+      <c r="H84" s="2">
+        <v>44572</v>
+      </c>
+      <c r="I84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="2">
+        <v>44571</v>
+      </c>
+      <c r="L84" t="s">
+        <v>74</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AH84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI84" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT84" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AY84" s="3"/>
+      <c r="BG84" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>3522110971498</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="2">
+        <v>30174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85">
+        <v>2202970075</v>
+      </c>
+      <c r="H85" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L85" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AH85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT85" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY85" s="3"/>
+      <c r="BG85" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>3522110085427</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C86" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="2">
+        <v>26756</v>
+      </c>
+      <c r="F86" t="s">
+        <v>240</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="J86" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K86" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" t="s">
+        <v>4</v>
+      </c>
+      <c r="M86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AH86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI86" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT86" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY86" s="3"/>
+      <c r="BD86" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE86" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF86" s="2">
+        <v>44581</v>
+      </c>
+      <c r="BG86" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH86" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>3522110995908</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C87" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="2">
+        <v>33892</v>
+      </c>
+      <c r="E87" t="s">
+        <v>263</v>
+      </c>
+      <c r="F87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87">
+        <v>2202970093</v>
+      </c>
+      <c r="H87" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AH87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI87" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN87" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS87" s="3"/>
+      <c r="AY87" s="3"/>
+      <c r="BG87" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH87" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>3522109955627</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="2">
+        <v>30360</v>
+      </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
+      <c r="F88" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="J88" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K88" t="s">
+        <v>3</v>
+      </c>
+      <c r="L88" t="s">
+        <v>4</v>
+      </c>
+      <c r="M88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AH88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI88" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN88" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT88" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY88" s="3"/>
+      <c r="BG88" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>3522110475526</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="2">
+        <v>29687</v>
+      </c>
+      <c r="F89" t="s">
+        <v>267</v>
+      </c>
+      <c r="J89" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K89" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AH89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT89" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY89" s="3"/>
+      <c r="BH89" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>3522110381270</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="2">
+        <v>30310</v>
+      </c>
+      <c r="F90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90">
+        <v>2202981554</v>
+      </c>
+      <c r="H90" s="2">
+        <v>44573</v>
+      </c>
+      <c r="I90" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="2">
+        <v>44572</v>
+      </c>
+      <c r="L90" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AH90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI90" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT90" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV90" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW90" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY90" s="3"/>
+      <c r="BG90" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH90" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>3522110277830</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C91" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="2">
+        <v>29153</v>
+      </c>
+      <c r="E91" t="s">
+        <v>271</v>
+      </c>
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="J91" s="2">
+        <v>44572</v>
+      </c>
+      <c r="K91" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AH91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI91" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT91" s="2">
+        <v>44572</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY91" s="3"/>
+      <c r="BG91" t="s">
+        <v>270</v>
+      </c>
+      <c r="BH91" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>3522109021504</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="2">
+        <v>30247</v>
+      </c>
+      <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92">
+        <v>2102912209</v>
+      </c>
+      <c r="H92" s="2">
+        <v>44568</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="2">
+        <v>44567</v>
+      </c>
+      <c r="L92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AH92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI92" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT92" s="2">
+        <v>44567</v>
+      </c>
+      <c r="AY92" s="3"/>
+      <c r="BG92" t="s">
+        <v>272</v>
+      </c>
+      <c r="BH92" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>3522110959479</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="2">
+        <v>38201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93">
+        <v>2202970076</v>
+      </c>
+      <c r="H93" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AH93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT93" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV93" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY93" s="3"/>
+      <c r="BG93" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH93" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>3522111341865</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44574</v>
+      </c>
+      <c r="C94" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="2">
+        <v>31502</v>
+      </c>
+      <c r="F94" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94">
+        <v>2202998149</v>
+      </c>
+      <c r="H94" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="2">
+        <v>44574</v>
+      </c>
+      <c r="L94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AH94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI94" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT94" s="2">
+        <v>44574</v>
+      </c>
+      <c r="AY94" s="3"/>
+      <c r="BG94" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH94" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>3522110476639</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44573</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" s="2">
+        <v>34821</v>
+      </c>
+      <c r="F95" t="s">
+        <v>277</v>
+      </c>
+      <c r="J95" s="2">
+        <v>44573</v>
+      </c>
+      <c r="K95" t="s">
+        <v>3</v>
+      </c>
+      <c r="L95" t="s">
+        <v>4</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AH95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT95" s="2">
+        <v>44573</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY95" s="3"/>
+      <c r="BH95" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI95" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7060,7 +9520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
